--- a/hydrogen_comps/meltpairMAE.xlsx
+++ b/hydrogen_comps/meltpairMAE.xlsx
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.1257796198154419</v>
+        <v>0.08921075830798841</v>
       </c>
     </row>
     <row r="3">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.09987680797262295</v>
+        <v>0.08469939697638122</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.09679563397495611</v>
+        <v>0.09011205197555508</v>
       </c>
     </row>
     <row r="5">
@@ -519,7 +519,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.08099309727929974</v>
+        <v>0.07624338743113865</v>
       </c>
     </row>
     <row r="6">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.07351974258277716</v>
+        <v>0.06989478692934439</v>
       </c>
     </row>
     <row r="7">
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.06537309980254083</v>
+        <v>0.06371476635184599</v>
       </c>
     </row>
     <row r="8">
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.1562089441778883</v>
+        <v>0.1256107809981147</v>
       </c>
     </row>
     <row r="9">
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.1276644546887327</v>
+        <v>0.1211262762080012</v>
       </c>
     </row>
     <row r="10">
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.1201492033266725</v>
+        <v>0.110924843000073</v>
       </c>
     </row>
     <row r="11">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.1010215936072859</v>
+        <v>0.09876737288663349</v>
       </c>
     </row>
     <row r="12">
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.08932455536811815</v>
+        <v>0.0876510592858345</v>
       </c>
     </row>
     <row r="13">
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.07973560024615041</v>
+        <v>0.07850770639489048</v>
       </c>
     </row>
   </sheetData>

--- a/hydrogen_comps/meltpairMAE.xlsx
+++ b/hydrogen_comps/meltpairMAE.xlsx
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.08921075830798841</v>
+        <v>0.04460537915399421</v>
       </c>
     </row>
     <row r="3">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.08469939697638122</v>
+        <v>0.02117484924409531</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.09011205197555508</v>
+        <v>0.01501867532925918</v>
       </c>
     </row>
     <row r="5">
@@ -519,7 +519,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.07624338743113865</v>
+        <v>0.009530423428892331</v>
       </c>
     </row>
     <row r="6">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.06989478692934439</v>
+        <v>0.006989478692934439</v>
       </c>
     </row>
     <row r="7">
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.06371476635184599</v>
+        <v>0.005309563862653833</v>
       </c>
     </row>
     <row r="8">
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.1256107809981147</v>
+        <v>0.06280539049905734</v>
       </c>
     </row>
     <row r="9">
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.1211262762080012</v>
+        <v>0.0302815690520003</v>
       </c>
     </row>
     <row r="10">
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.110924843000073</v>
+        <v>0.01848747383334549</v>
       </c>
     </row>
     <row r="11">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.09876737288663349</v>
+        <v>0.01234592161082919</v>
       </c>
     </row>
     <row r="12">
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.0876510592858345</v>
+        <v>0.00876510592858345</v>
       </c>
     </row>
     <row r="13">
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.07850770639489048</v>
+        <v>0.006542308866240873</v>
       </c>
     </row>
   </sheetData>
